--- a/R_input_files/Histology_Data.xlsx
+++ b/R_input_files/Histology_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xerhma\Glycans\lmpc-infection-rnaseq\R_input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2D1A9-E69D-4825-A5A8-781B9859880C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1121C7-F88D-4852-8684-991333A95D1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>User_ID</t>
   </si>
@@ -67,12 +67,6 @@
     <t>H9_02</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>H9_03</t>
   </si>
   <si>
@@ -88,24 +82,12 @@
     <t>H9_07</t>
   </si>
   <si>
-    <t>70.8</t>
-  </si>
-  <si>
     <t>H9_08</t>
   </si>
   <si>
-    <t>46.6</t>
-  </si>
-  <si>
     <t>H9_09</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
     <t>H9_10</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t>H1001</t>
   </si>
   <si>
-    <t>H10</t>
-  </si>
-  <si>
     <t>H1002</t>
   </si>
   <si>
@@ -160,37 +139,100 @@
     <t>H1010</t>
   </si>
   <si>
-    <t>H07</t>
-  </si>
-  <si>
     <t>Sequenced</t>
   </si>
   <si>
     <t>Cohort</t>
   </si>
   <si>
-    <t>H09</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>93.75</t>
-  </si>
-  <si>
-    <t>95.4</t>
-  </si>
-  <si>
-    <t>72.8</t>
-  </si>
-  <si>
-    <t>74.8</t>
-  </si>
-  <si>
-    <t>27.8</t>
+    <t>Manuscript_ID</t>
+  </si>
+  <si>
+    <t>M-1</t>
+  </si>
+  <si>
+    <t>M-2</t>
+  </si>
+  <si>
+    <t>M-3</t>
+  </si>
+  <si>
+    <t>M-4</t>
+  </si>
+  <si>
+    <t>M-5</t>
+  </si>
+  <si>
+    <t>M-6</t>
+  </si>
+  <si>
+    <t>M-7</t>
+  </si>
+  <si>
+    <t>M-8</t>
+  </si>
+  <si>
+    <t>M-9</t>
+  </si>
+  <si>
+    <t>M-10</t>
+  </si>
+  <si>
+    <t>G1-1</t>
+  </si>
+  <si>
+    <t>G1-2</t>
+  </si>
+  <si>
+    <t>G1-3</t>
+  </si>
+  <si>
+    <t>G1-4</t>
+  </si>
+  <si>
+    <t>G1-5</t>
+  </si>
+  <si>
+    <t>G1-6</t>
+  </si>
+  <si>
+    <t>G1-7</t>
+  </si>
+  <si>
+    <t>G1-8</t>
+  </si>
+  <si>
+    <t>G2-1</t>
+  </si>
+  <si>
+    <t>G2-2</t>
+  </si>
+  <si>
+    <t>G2-3</t>
+  </si>
+  <si>
+    <t>G2-4</t>
+  </si>
+  <si>
+    <t>G2-5</t>
+  </si>
+  <si>
+    <t>G2-6</t>
+  </si>
+  <si>
+    <t>G2-7</t>
+  </si>
+  <si>
+    <t>G2-8</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
   </si>
 </sst>
 </file>
@@ -678,9 +720,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,852 +1079,1052 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
       <c r="N1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="b">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="b">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="b">
+      <c r="C9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="b">
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="b">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="K16" s="1">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="K24" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="I19">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="K26" s="1">
+        <v>75</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K27" s="1">
         <v>88</v>
       </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
       <c r="L27" t="s">
         <v>10</v>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>38</v>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
